--- a/Crescimento de Clientes.xlsx
+++ b/Crescimento de Clientes.xlsx
@@ -5,19 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinic\GitHub\ExcelTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AF4215-2EB5-44B7-8EB3-551688997662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD9D3AB-BE59-4461-923B-EB825EFEE7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61B44670-6C06-409A-8582-F79BA32CC433}"/>
   </bookViews>
   <sheets>
     <sheet name="MM Cresc Firma" sheetId="2" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -113,87 +110,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
-    <t>Constantes Matematicas Diretamente Dependentes</t>
-  </si>
-  <si>
-    <t>Variavel</t>
-  </si>
-  <si>
-    <t>Efeito na curva</t>
-  </si>
-  <si>
-    <t>Valor definido</t>
-  </si>
-  <si>
     <t>k₁ (linear)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Multiplica o mês na fase 1</t>
-  </si>
-  <si>
-    <t>k₂ (exponencial)</t>
-  </si>
-  <si>
-    <t>Acelera ou suaviza a escala</t>
-  </si>
-  <si>
-    <t>k₃ (logarítmica)</t>
-  </si>
-  <si>
-    <t>Mais ou menos lento no pós-maturidade</t>
-  </si>
-  <si>
-    <t>A (amplitude do salto)</t>
-  </si>
-  <si>
-    <t>Aumenta o número total de clientes no 2º e 3º ano</t>
-  </si>
-  <si>
-    <t>B (altura máxima)</t>
-  </si>
-  <si>
-    <t>Controla o “teto” do negócio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">α (impulso)	</t>
-  </si>
-  <si>
-    <t>Muda o ritmo geral: otimista vs realista vs pessimista</t>
   </si>
   <si>
     <t>t1</t>
   </si>
   <si>
-    <t>Crescimento linear da Firma</t>
-  </si>
-  <si>
     <t>t2</t>
   </si>
   <si>
-    <t>Crescimento Explosivo da Firma</t>
-  </si>
-  <si>
     <t>t3</t>
-  </si>
-  <si>
-    <t>Saturação de Mercado</t>
-  </si>
-  <si>
-    <t>Formulas dos modelos</t>
-  </si>
-  <si>
-    <t>Curtiu o modelo? Não guarda só pra você!
-Compartilha, comenta, e me adiciona no LinkedIn pra receber mais sacadas assim direto na tua timeline.                                                                                "Conhecimento é a única coisa que ninguém pode tirar de você."
-– Paulo Canonici, inspiração e exemplo</t>
-  </si>
-  <si>
-    <t>Para todo 0&lt;=t&lt;=t1</t>
-  </si>
-  <si>
-    <t>Para todo t1&lt;t&lt;=t2</t>
-  </si>
-  <si>
-    <t>Para todo t2&lt;t&lt;=t3</t>
   </si>
   <si>
     <t>Valores Calculados</t>
@@ -204,12 +130,83 @@
   <si>
     <t>Valores</t>
   </si>
+  <si>
+    <t>Did you like the model? Don't keep it just for yourself!
+Share, comment, and add me on LinkedIn to receive more insights like this directly on your timeline.                                                                                "Knowledge is the only thing no one can take away from you."
+– Paulo Canonici, inspiration and example</t>
+  </si>
+  <si>
+    <t>Directly Dependent Mathematical Constants</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>k₂ (exponential)</t>
+  </si>
+  <si>
+    <t>k₃ (logarithmic)</t>
+  </si>
+  <si>
+    <t>A (jump amplitude)</t>
+  </si>
+  <si>
+    <t>B (maximum height)</t>
+  </si>
+  <si>
+    <t>α (impulse)</t>
+  </si>
+  <si>
+    <t>For all 0&lt;=t&lt;=t1</t>
+  </si>
+  <si>
+    <t>For all t1&lt;t&lt;=t2</t>
+  </si>
+  <si>
+    <t>For all t2&lt;t&lt;=t3</t>
+  </si>
+  <si>
+    <t>Effect on the curve</t>
+  </si>
+  <si>
+    <t>Multiply the month in phase 1</t>
+  </si>
+  <si>
+    <t>Speeds up or smooths the scale</t>
+  </si>
+  <si>
+    <t>More or less slow in post-maturity</t>
+  </si>
+  <si>
+    <t>Increases the total number of customers in the 2nd and 3rd year</t>
+  </si>
+  <si>
+    <t>Controls the "ceiling" of the business</t>
+  </si>
+  <si>
+    <t>Changes the overall pace: optimistic vs realistic vs pessimistic</t>
+  </si>
+  <si>
+    <t>Firm's Linear Growth</t>
+  </si>
+  <si>
+    <t>Explosive Growth of the Firm</t>
+  </si>
+  <si>
+    <t>Market Saturation</t>
+  </si>
+  <si>
+    <t>Defined value</t>
+  </si>
+  <si>
+    <t>Model Formulae</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,12 +240,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -351,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -361,80 +352,101 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,6 +480,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Expected</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Groth in 10 Years</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2069,8 +2111,8 @@
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="8724900" cy="505523"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CaixaDeTexto 1">
@@ -2112,6 +2154,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2218,7 +2261,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CaixaDeTexto 1">
@@ -2289,8 +2332,8 @@
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="8696325" cy="550343"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CaixaDeTexto 2">
@@ -2332,6 +2375,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2568,7 +2612,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CaixaDeTexto 2">
@@ -2639,8 +2683,8 @@
       <xdr:rowOff>257175</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="8696325" cy="505523"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="CaixaDeTexto 3">
@@ -2682,6 +2726,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2911,7 +2956,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="CaixaDeTexto 3">
@@ -3079,993 +3124,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Planilha1"/>
-      <sheetName val="MM Cresc Firma"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="23">
-          <cell r="B23" t="str">
-            <v>Meses</v>
-          </cell>
-          <cell r="C23" t="str">
-            <v>Valores</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>1</v>
-          </cell>
-          <cell r="C24">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>2</v>
-          </cell>
-          <cell r="C25">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>3</v>
-          </cell>
-          <cell r="C26">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>4</v>
-          </cell>
-          <cell r="C27">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>5</v>
-          </cell>
-          <cell r="C28">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>6</v>
-          </cell>
-          <cell r="C29">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>7</v>
-          </cell>
-          <cell r="C30">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>8</v>
-          </cell>
-          <cell r="C31">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>9</v>
-          </cell>
-          <cell r="C32">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>10</v>
-          </cell>
-          <cell r="C33">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>11</v>
-          </cell>
-          <cell r="C34">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>12</v>
-          </cell>
-          <cell r="C35">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>13</v>
-          </cell>
-          <cell r="C36">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>14</v>
-          </cell>
-          <cell r="C37">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>15</v>
-          </cell>
-          <cell r="C38">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>16</v>
-          </cell>
-          <cell r="C39">
-            <v>19</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>17</v>
-          </cell>
-          <cell r="C40">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>18</v>
-          </cell>
-          <cell r="C41">
-            <v>21</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>19</v>
-          </cell>
-          <cell r="C42">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>20</v>
-          </cell>
-          <cell r="C43">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>21</v>
-          </cell>
-          <cell r="C44">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>22</v>
-          </cell>
-          <cell r="C45">
-            <v>43</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>23</v>
-          </cell>
-          <cell r="C46">
-            <v>52</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>24</v>
-          </cell>
-          <cell r="C47">
-            <v>63</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48">
-            <v>25</v>
-          </cell>
-          <cell r="C48">
-            <v>76</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49">
-            <v>26</v>
-          </cell>
-          <cell r="C49">
-            <v>92</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50">
-            <v>27</v>
-          </cell>
-          <cell r="C50">
-            <v>112</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>28</v>
-          </cell>
-          <cell r="C51">
-            <v>136</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52">
-            <v>29</v>
-          </cell>
-          <cell r="C52">
-            <v>166</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53">
-            <v>30</v>
-          </cell>
-          <cell r="C53">
-            <v>202</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54">
-            <v>31</v>
-          </cell>
-          <cell r="C54">
-            <v>245</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55">
-            <v>32</v>
-          </cell>
-          <cell r="C55">
-            <v>299</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56">
-            <v>33</v>
-          </cell>
-          <cell r="C56">
-            <v>365</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57">
-            <v>34</v>
-          </cell>
-          <cell r="C57">
-            <v>445</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58">
-            <v>35</v>
-          </cell>
-          <cell r="C58">
-            <v>542</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="B59">
-            <v>36</v>
-          </cell>
-          <cell r="C59">
-            <v>662</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="B60">
-            <v>37</v>
-          </cell>
-          <cell r="C60">
-            <v>693</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="B61">
-            <v>38</v>
-          </cell>
-          <cell r="C61">
-            <v>718</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="B62">
-            <v>39</v>
-          </cell>
-          <cell r="C62">
-            <v>739</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="B63">
-            <v>40</v>
-          </cell>
-          <cell r="C63">
-            <v>756</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="B64">
-            <v>41</v>
-          </cell>
-          <cell r="C64">
-            <v>772</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="B65">
-            <v>42</v>
-          </cell>
-          <cell r="C65">
-            <v>785</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="B66">
-            <v>43</v>
-          </cell>
-          <cell r="C66">
-            <v>798</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="B67">
-            <v>44</v>
-          </cell>
-          <cell r="C67">
-            <v>809</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="B68">
-            <v>45</v>
-          </cell>
-          <cell r="C68">
-            <v>819</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="B69">
-            <v>46</v>
-          </cell>
-          <cell r="C69">
-            <v>828</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="B70">
-            <v>47</v>
-          </cell>
-          <cell r="C70">
-            <v>837</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="B71">
-            <v>48</v>
-          </cell>
-          <cell r="C71">
-            <v>845</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="B72">
-            <v>49</v>
-          </cell>
-          <cell r="C72">
-            <v>853</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="B73">
-            <v>50</v>
-          </cell>
-          <cell r="C73">
-            <v>860</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="B74">
-            <v>51</v>
-          </cell>
-          <cell r="C74">
-            <v>866</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="B75">
-            <v>52</v>
-          </cell>
-          <cell r="C75">
-            <v>873</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="B76">
-            <v>53</v>
-          </cell>
-          <cell r="C76">
-            <v>879</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="B77">
-            <v>54</v>
-          </cell>
-          <cell r="C77">
-            <v>885</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="B78">
-            <v>55</v>
-          </cell>
-          <cell r="C78">
-            <v>890</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="B79">
-            <v>56</v>
-          </cell>
-          <cell r="C79">
-            <v>895</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="B80">
-            <v>57</v>
-          </cell>
-          <cell r="C80">
-            <v>900</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="B81">
-            <v>58</v>
-          </cell>
-          <cell r="C81">
-            <v>905</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="B82">
-            <v>59</v>
-          </cell>
-          <cell r="C82">
-            <v>910</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="B83">
-            <v>60</v>
-          </cell>
-          <cell r="C83">
-            <v>914</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="B84">
-            <v>61</v>
-          </cell>
-          <cell r="C84">
-            <v>919</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="B85">
-            <v>62</v>
-          </cell>
-          <cell r="C85">
-            <v>923</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="B86">
-            <v>63</v>
-          </cell>
-          <cell r="C86">
-            <v>927</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="B87">
-            <v>64</v>
-          </cell>
-          <cell r="C87">
-            <v>931</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="B88">
-            <v>65</v>
-          </cell>
-          <cell r="C88">
-            <v>935</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="B89">
-            <v>66</v>
-          </cell>
-          <cell r="C89">
-            <v>938</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="B90">
-            <v>67</v>
-          </cell>
-          <cell r="C90">
-            <v>942</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="B91">
-            <v>68</v>
-          </cell>
-          <cell r="C91">
-            <v>945</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="B92">
-            <v>69</v>
-          </cell>
-          <cell r="C92">
-            <v>949</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="B93">
-            <v>70</v>
-          </cell>
-          <cell r="C93">
-            <v>952</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="B94">
-            <v>71</v>
-          </cell>
-          <cell r="C94">
-            <v>955</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="B95">
-            <v>72</v>
-          </cell>
-          <cell r="C95">
-            <v>958</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="B96">
-            <v>73</v>
-          </cell>
-          <cell r="C96">
-            <v>961</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="B97">
-            <v>74</v>
-          </cell>
-          <cell r="C97">
-            <v>964</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="B98">
-            <v>75</v>
-          </cell>
-          <cell r="C98">
-            <v>967</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="B99">
-            <v>76</v>
-          </cell>
-          <cell r="C99">
-            <v>970</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="B100">
-            <v>77</v>
-          </cell>
-          <cell r="C100">
-            <v>972</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="B101">
-            <v>78</v>
-          </cell>
-          <cell r="C101">
-            <v>975</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="B102">
-            <v>79</v>
-          </cell>
-          <cell r="C102">
-            <v>978</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="B103">
-            <v>80</v>
-          </cell>
-          <cell r="C103">
-            <v>980</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="B104">
-            <v>81</v>
-          </cell>
-          <cell r="C104">
-            <v>983</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="B105">
-            <v>82</v>
-          </cell>
-          <cell r="C105">
-            <v>985</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="B106">
-            <v>83</v>
-          </cell>
-          <cell r="C106">
-            <v>988</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="B107">
-            <v>84</v>
-          </cell>
-          <cell r="C107">
-            <v>990</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="B108">
-            <v>85</v>
-          </cell>
-          <cell r="C108">
-            <v>992</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="B109">
-            <v>86</v>
-          </cell>
-          <cell r="C109">
-            <v>995</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="B110">
-            <v>87</v>
-          </cell>
-          <cell r="C110">
-            <v>997</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="B111">
-            <v>88</v>
-          </cell>
-          <cell r="C111">
-            <v>999</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="B112">
-            <v>89</v>
-          </cell>
-          <cell r="C112">
-            <v>1001</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="B113">
-            <v>90</v>
-          </cell>
-          <cell r="C113">
-            <v>1003</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="B114">
-            <v>91</v>
-          </cell>
-          <cell r="C114">
-            <v>1005</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="B115">
-            <v>92</v>
-          </cell>
-          <cell r="C115">
-            <v>1007</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="B116">
-            <v>93</v>
-          </cell>
-          <cell r="C116">
-            <v>1009</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="B117">
-            <v>94</v>
-          </cell>
-          <cell r="C117">
-            <v>1011</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="B118">
-            <v>95</v>
-          </cell>
-          <cell r="C118">
-            <v>1013</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="B119">
-            <v>96</v>
-          </cell>
-          <cell r="C119">
-            <v>1015</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="B120">
-            <v>97</v>
-          </cell>
-          <cell r="C120">
-            <v>1017</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="B121">
-            <v>98</v>
-          </cell>
-          <cell r="C121">
-            <v>1019</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="B122">
-            <v>99</v>
-          </cell>
-          <cell r="C122">
-            <v>1021</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="B123">
-            <v>100</v>
-          </cell>
-          <cell r="C123">
-            <v>1023</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="B124">
-            <v>101</v>
-          </cell>
-          <cell r="C124">
-            <v>1024</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="B125">
-            <v>102</v>
-          </cell>
-          <cell r="C125">
-            <v>1026</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="B126">
-            <v>103</v>
-          </cell>
-          <cell r="C126">
-            <v>1028</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="B127">
-            <v>104</v>
-          </cell>
-          <cell r="C127">
-            <v>1029</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="B128">
-            <v>105</v>
-          </cell>
-          <cell r="C128">
-            <v>1031</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="B129">
-            <v>106</v>
-          </cell>
-          <cell r="C129">
-            <v>1033</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="B130">
-            <v>107</v>
-          </cell>
-          <cell r="C130">
-            <v>1034</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="B131">
-            <v>108</v>
-          </cell>
-          <cell r="C131">
-            <v>1036</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="B132">
-            <v>109</v>
-          </cell>
-          <cell r="C132">
-            <v>1038</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="B133">
-            <v>110</v>
-          </cell>
-          <cell r="C133">
-            <v>1039</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="B134">
-            <v>111</v>
-          </cell>
-          <cell r="C134">
-            <v>1041</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="B135">
-            <v>112</v>
-          </cell>
-          <cell r="C135">
-            <v>1042</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="B136">
-            <v>113</v>
-          </cell>
-          <cell r="C136">
-            <v>1044</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="B137">
-            <v>114</v>
-          </cell>
-          <cell r="C137">
-            <v>1045</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="B138">
-            <v>115</v>
-          </cell>
-          <cell r="C138">
-            <v>1047</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="B139">
-            <v>116</v>
-          </cell>
-          <cell r="C139">
-            <v>1048</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="B140">
-            <v>117</v>
-          </cell>
-          <cell r="C140">
-            <v>1050</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="B141">
-            <v>118</v>
-          </cell>
-          <cell r="C141">
-            <v>1051</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="B142">
-            <v>119</v>
-          </cell>
-          <cell r="C142">
-            <v>1052</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="B143">
-            <v>120</v>
-          </cell>
-          <cell r="C143">
-            <v>1054</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4430,1337 +3488,1337 @@
   <sheetData>
     <row r="1" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="10"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
-        <v>4</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
-        <v>6</v>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1">
         <v>0.2</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>8</v>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1">
         <v>0.3</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
     </row>
     <row r="7" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>10</v>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1">
         <v>15</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14"/>
     </row>
     <row r="8" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>12</v>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1">
         <v>100</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1">
         <v>1.2</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="14"/>
     </row>
     <row r="10" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
-        <v>16</v>
+      <c r="B10" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1">
         <v>18</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
     </row>
     <row r="11" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
-        <v>18</v>
+      <c r="B11" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1">
         <v>36</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>21</v>
+      <c r="B12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>60</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="18"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="17"/>
     </row>
     <row r="13" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="G14" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="21"/>
+      <c r="B14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="10"/>
+      <c r="G14" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="20"/>
     </row>
     <row r="15" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="24"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="21"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
     </row>
     <row r="16" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="24"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="14"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="23"/>
     </row>
     <row r="17" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="24"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="21"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
     </row>
     <row r="18" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="24"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
     </row>
     <row r="19" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="24"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="21"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
     </row>
     <row r="20" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="27"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="26"/>
     </row>
     <row r="21" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="6"/>
+      <c r="B22" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="28"/>
     </row>
     <row r="23" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>29</v>
+      <c r="B23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="7">
+      <c r="B24" s="29">
         <v>1</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="30">
         <f>IF(B24&lt;=$D$10,ROUNDDOWN($D$9*$D$4*B24,0),IF(B24&lt;=$D$11,ROUNDDOWN($D$9*$D$4*$D$10+$D$9*$D$7*(EXP($D$5*(B24-$D$10))-1),0),ROUNDDOWN(($D$4*$D$9*$D$10)+$D$9*$D$7*(EXP($D$5*($D$11-$D$10))-1)+$D$9*$D$8*LN($D$6*(B24-$D$11)+1),0)))</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="7">
+      <c r="B25" s="29">
         <v>2</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="30">
         <f t="shared" ref="C25:C88" si="0">IF(B25&lt;=$D$10,ROUNDDOWN($D$9*$D$4*B25,0),IF(B25&lt;=$D$11,ROUNDDOWN($D$9*$D$4*$D$10+$D$9*$D$7*(EXP($D$5*(B25-$D$10))-1),0),ROUNDDOWN(($D$4*$D$9*$D$10)+$D$9*$D$7*(EXP($D$5*($D$11-$D$10))-1)+$D$9*$D$8*LN($D$6*(B25-$D$11)+1),0)))</f>
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="7">
+      <c r="B26" s="29">
         <v>3</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="30">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="7">
+      <c r="B27" s="29">
         <v>4</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="30">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="7">
+      <c r="B28" s="29">
         <v>5</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="30">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="7">
+      <c r="B29" s="29">
         <v>6</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="30">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="7">
+      <c r="B30" s="29">
         <v>7</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="30">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="7">
+      <c r="B31" s="29">
         <v>8</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="30">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="7">
+      <c r="B32" s="29">
         <v>9</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="30">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="7">
+      <c r="B33" s="29">
         <v>10</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="30">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="7">
+      <c r="B34" s="29">
         <v>11</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="30">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="7">
+      <c r="B35" s="29">
         <v>12</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="30">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="7">
+      <c r="B36" s="29">
         <v>13</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="30">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="7">
+      <c r="B37" s="29">
         <v>14</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="30">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="7">
+      <c r="B38" s="29">
         <v>15</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="30">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="7">
+      <c r="B39" s="29">
         <v>16</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="30">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="7">
+      <c r="B40" s="29">
         <v>17</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="30">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="7">
+      <c r="B41" s="29">
         <v>18</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="30">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="7">
+      <c r="B42" s="29">
         <v>19</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="30">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="7">
+      <c r="B43" s="29">
         <v>20</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="30">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="7">
+      <c r="B44" s="29">
         <v>21</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="30">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="7">
+      <c r="B45" s="29">
         <v>22</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="30">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="7">
+      <c r="B46" s="29">
         <v>23</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="30">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="7">
+      <c r="B47" s="29">
         <v>24</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="30">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="7">
+      <c r="B48" s="29">
         <v>25</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="30">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="7">
+      <c r="B49" s="29">
         <v>26</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="30">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="7">
+      <c r="B50" s="29">
         <v>27</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="30">
         <f t="shared" si="0"/>
         <v>112</v>
       </c>
     </row>
     <row r="51" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="7">
+      <c r="B51" s="29">
         <v>28</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="30">
         <f t="shared" si="0"/>
         <v>136</v>
       </c>
     </row>
     <row r="52" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="7">
+      <c r="B52" s="29">
         <v>29</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="30">
         <f t="shared" si="0"/>
         <v>166</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="7">
+      <c r="B53" s="29">
         <v>30</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="30">
         <f t="shared" si="0"/>
         <v>202</v>
       </c>
     </row>
     <row r="54" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="7">
+      <c r="B54" s="29">
         <v>31</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="30">
         <f t="shared" si="0"/>
         <v>245</v>
       </c>
     </row>
     <row r="55" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="7">
+      <c r="B55" s="29">
         <v>32</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="30">
         <f t="shared" si="0"/>
         <v>299</v>
       </c>
     </row>
     <row r="56" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="7">
+      <c r="B56" s="29">
         <v>33</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="30">
         <f t="shared" si="0"/>
         <v>365</v>
       </c>
     </row>
     <row r="57" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="7">
+      <c r="B57" s="29">
         <v>34</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="30">
         <f t="shared" si="0"/>
         <v>445</v>
       </c>
     </row>
     <row r="58" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="7">
+      <c r="B58" s="29">
         <v>35</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="30">
         <f t="shared" si="0"/>
         <v>542</v>
       </c>
     </row>
     <row r="59" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="7">
+      <c r="B59" s="29">
         <v>36</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="30">
         <f t="shared" si="0"/>
         <v>662</v>
       </c>
     </row>
     <row r="60" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="7">
+      <c r="B60" s="29">
         <v>37</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="30">
         <f t="shared" si="0"/>
         <v>693</v>
       </c>
     </row>
     <row r="61" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="7">
+      <c r="B61" s="29">
         <v>38</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="30">
         <f t="shared" si="0"/>
         <v>718</v>
       </c>
     </row>
     <row r="62" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="7">
+      <c r="B62" s="29">
         <v>39</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="30">
         <f t="shared" si="0"/>
         <v>739</v>
       </c>
     </row>
     <row r="63" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="7">
+      <c r="B63" s="29">
         <v>40</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="30">
         <f t="shared" si="0"/>
         <v>756</v>
       </c>
     </row>
     <row r="64" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="7">
+      <c r="B64" s="29">
         <v>41</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="30">
         <f t="shared" si="0"/>
         <v>772</v>
       </c>
     </row>
     <row r="65" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="7">
+      <c r="B65" s="29">
         <v>42</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="30">
         <f t="shared" si="0"/>
         <v>785</v>
       </c>
     </row>
     <row r="66" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="7">
+      <c r="B66" s="29">
         <v>43</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="30">
         <f t="shared" si="0"/>
         <v>798</v>
       </c>
     </row>
     <row r="67" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="7">
+      <c r="B67" s="29">
         <v>44</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="30">
         <f t="shared" si="0"/>
         <v>809</v>
       </c>
     </row>
     <row r="68" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="7">
+      <c r="B68" s="29">
         <v>45</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="30">
         <f t="shared" si="0"/>
         <v>819</v>
       </c>
     </row>
     <row r="69" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="7">
+      <c r="B69" s="29">
         <v>46</v>
       </c>
-      <c r="C69" s="8">
+      <c r="C69" s="30">
         <f t="shared" si="0"/>
         <v>828</v>
       </c>
     </row>
     <row r="70" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="7">
+      <c r="B70" s="29">
         <v>47</v>
       </c>
-      <c r="C70" s="8">
+      <c r="C70" s="30">
         <f t="shared" si="0"/>
         <v>837</v>
       </c>
     </row>
     <row r="71" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="7">
+      <c r="B71" s="29">
         <v>48</v>
       </c>
-      <c r="C71" s="8">
+      <c r="C71" s="30">
         <f t="shared" si="0"/>
         <v>845</v>
       </c>
     </row>
     <row r="72" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="7">
+      <c r="B72" s="29">
         <v>49</v>
       </c>
-      <c r="C72" s="8">
+      <c r="C72" s="30">
         <f t="shared" si="0"/>
         <v>853</v>
       </c>
     </row>
     <row r="73" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="7">
+      <c r="B73" s="29">
         <v>50</v>
       </c>
-      <c r="C73" s="8">
+      <c r="C73" s="30">
         <f t="shared" si="0"/>
         <v>860</v>
       </c>
     </row>
     <row r="74" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="7">
+      <c r="B74" s="29">
         <v>51</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C74" s="30">
         <f t="shared" si="0"/>
         <v>866</v>
       </c>
     </row>
     <row r="75" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="7">
+      <c r="B75" s="29">
         <v>52</v>
       </c>
-      <c r="C75" s="8">
+      <c r="C75" s="30">
         <f t="shared" si="0"/>
         <v>873</v>
       </c>
     </row>
     <row r="76" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="7">
+      <c r="B76" s="29">
         <v>53</v>
       </c>
-      <c r="C76" s="8">
+      <c r="C76" s="30">
         <f t="shared" si="0"/>
         <v>879</v>
       </c>
     </row>
     <row r="77" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="7">
+      <c r="B77" s="29">
         <v>54</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77" s="30">
         <f t="shared" si="0"/>
         <v>885</v>
       </c>
     </row>
     <row r="78" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="7">
+      <c r="B78" s="29">
         <v>55</v>
       </c>
-      <c r="C78" s="8">
+      <c r="C78" s="30">
         <f t="shared" si="0"/>
         <v>890</v>
       </c>
     </row>
     <row r="79" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="7">
+      <c r="B79" s="29">
         <v>56</v>
       </c>
-      <c r="C79" s="8">
+      <c r="C79" s="30">
         <f t="shared" si="0"/>
         <v>895</v>
       </c>
     </row>
     <row r="80" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="7">
+      <c r="B80" s="29">
         <v>57</v>
       </c>
-      <c r="C80" s="8">
+      <c r="C80" s="30">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
     </row>
     <row r="81" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="7">
+      <c r="B81" s="29">
         <v>58</v>
       </c>
-      <c r="C81" s="8">
+      <c r="C81" s="30">
         <f t="shared" si="0"/>
         <v>905</v>
       </c>
     </row>
     <row r="82" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="7">
+      <c r="B82" s="29">
         <v>59</v>
       </c>
-      <c r="C82" s="8">
+      <c r="C82" s="30">
         <f t="shared" si="0"/>
         <v>910</v>
       </c>
     </row>
     <row r="83" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="7">
+      <c r="B83" s="29">
         <v>60</v>
       </c>
-      <c r="C83" s="8">
+      <c r="C83" s="30">
         <f t="shared" si="0"/>
         <v>914</v>
       </c>
     </row>
     <row r="84" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="7">
+      <c r="B84" s="29">
         <v>61</v>
       </c>
-      <c r="C84" s="8">
+      <c r="C84" s="30">
         <f t="shared" si="0"/>
         <v>919</v>
       </c>
     </row>
     <row r="85" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="7">
+      <c r="B85" s="29">
         <v>62</v>
       </c>
-      <c r="C85" s="8">
+      <c r="C85" s="30">
         <f t="shared" si="0"/>
         <v>923</v>
       </c>
     </row>
     <row r="86" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="7">
+      <c r="B86" s="29">
         <v>63</v>
       </c>
-      <c r="C86" s="8">
+      <c r="C86" s="30">
         <f t="shared" si="0"/>
         <v>927</v>
       </c>
     </row>
     <row r="87" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="7">
+      <c r="B87" s="29">
         <v>64</v>
       </c>
-      <c r="C87" s="8">
+      <c r="C87" s="30">
         <f t="shared" si="0"/>
         <v>931</v>
       </c>
     </row>
     <row r="88" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="7">
+      <c r="B88" s="29">
         <v>65</v>
       </c>
-      <c r="C88" s="8">
+      <c r="C88" s="30">
         <f t="shared" si="0"/>
         <v>935</v>
       </c>
     </row>
     <row r="89" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="7">
+      <c r="B89" s="29">
         <v>66</v>
       </c>
-      <c r="C89" s="8">
+      <c r="C89" s="30">
         <f t="shared" ref="C89:C143" si="1">IF(B89&lt;=$D$10,ROUNDDOWN($D$9*$D$4*B89,0),IF(B89&lt;=$D$11,ROUNDDOWN($D$9*$D$4*$D$10+$D$9*$D$7*(EXP($D$5*(B89-$D$10))-1),0),ROUNDDOWN(($D$4*$D$9*$D$10)+$D$9*$D$7*(EXP($D$5*($D$11-$D$10))-1)+$D$9*$D$8*LN($D$6*(B89-$D$11)+1),0)))</f>
         <v>938</v>
       </c>
     </row>
     <row r="90" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="7">
+      <c r="B90" s="29">
         <v>67</v>
       </c>
-      <c r="C90" s="8">
+      <c r="C90" s="30">
         <f t="shared" si="1"/>
         <v>942</v>
       </c>
     </row>
     <row r="91" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="7">
+      <c r="B91" s="29">
         <v>68</v>
       </c>
-      <c r="C91" s="8">
+      <c r="C91" s="30">
         <f t="shared" si="1"/>
         <v>945</v>
       </c>
     </row>
     <row r="92" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="7">
+      <c r="B92" s="29">
         <v>69</v>
       </c>
-      <c r="C92" s="8">
+      <c r="C92" s="30">
         <f t="shared" si="1"/>
         <v>949</v>
       </c>
     </row>
     <row r="93" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="7">
+      <c r="B93" s="29">
         <v>70</v>
       </c>
-      <c r="C93" s="8">
+      <c r="C93" s="30">
         <f t="shared" si="1"/>
         <v>952</v>
       </c>
     </row>
     <row r="94" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="7">
+      <c r="B94" s="29">
         <v>71</v>
       </c>
-      <c r="C94" s="8">
+      <c r="C94" s="30">
         <f t="shared" si="1"/>
         <v>955</v>
       </c>
     </row>
     <row r="95" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="7">
+      <c r="B95" s="29">
         <v>72</v>
       </c>
-      <c r="C95" s="8">
+      <c r="C95" s="30">
         <f t="shared" si="1"/>
         <v>958</v>
       </c>
     </row>
     <row r="96" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="7">
+      <c r="B96" s="29">
         <v>73</v>
       </c>
-      <c r="C96" s="8">
+      <c r="C96" s="30">
         <f t="shared" si="1"/>
         <v>961</v>
       </c>
     </row>
     <row r="97" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="7">
+      <c r="B97" s="29">
         <v>74</v>
       </c>
-      <c r="C97" s="8">
+      <c r="C97" s="30">
         <f t="shared" si="1"/>
         <v>964</v>
       </c>
     </row>
     <row r="98" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="7">
+      <c r="B98" s="29">
         <v>75</v>
       </c>
-      <c r="C98" s="8">
+      <c r="C98" s="30">
         <f t="shared" si="1"/>
         <v>967</v>
       </c>
     </row>
     <row r="99" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="7">
+      <c r="B99" s="29">
         <v>76</v>
       </c>
-      <c r="C99" s="8">
+      <c r="C99" s="30">
         <f t="shared" si="1"/>
         <v>970</v>
       </c>
     </row>
     <row r="100" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="7">
+      <c r="B100" s="29">
         <v>77</v>
       </c>
-      <c r="C100" s="8">
+      <c r="C100" s="30">
         <f t="shared" si="1"/>
         <v>972</v>
       </c>
     </row>
     <row r="101" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="7">
+      <c r="B101" s="29">
         <v>78</v>
       </c>
-      <c r="C101" s="8">
+      <c r="C101" s="30">
         <f t="shared" si="1"/>
         <v>975</v>
       </c>
     </row>
     <row r="102" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="7">
+      <c r="B102" s="29">
         <v>79</v>
       </c>
-      <c r="C102" s="8">
+      <c r="C102" s="30">
         <f t="shared" si="1"/>
         <v>978</v>
       </c>
     </row>
     <row r="103" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="7">
+      <c r="B103" s="29">
         <v>80</v>
       </c>
-      <c r="C103" s="8">
+      <c r="C103" s="30">
         <f t="shared" si="1"/>
         <v>980</v>
       </c>
     </row>
     <row r="104" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="7">
+      <c r="B104" s="29">
         <v>81</v>
       </c>
-      <c r="C104" s="8">
+      <c r="C104" s="30">
         <f t="shared" si="1"/>
         <v>983</v>
       </c>
     </row>
     <row r="105" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="7">
+      <c r="B105" s="29">
         <v>82</v>
       </c>
-      <c r="C105" s="8">
+      <c r="C105" s="30">
         <f t="shared" si="1"/>
         <v>985</v>
       </c>
     </row>
     <row r="106" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="7">
+      <c r="B106" s="29">
         <v>83</v>
       </c>
-      <c r="C106" s="8">
+      <c r="C106" s="30">
         <f t="shared" si="1"/>
         <v>988</v>
       </c>
     </row>
     <row r="107" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="7">
+      <c r="B107" s="29">
         <v>84</v>
       </c>
-      <c r="C107" s="8">
+      <c r="C107" s="30">
         <f t="shared" si="1"/>
         <v>990</v>
       </c>
     </row>
     <row r="108" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="7">
+      <c r="B108" s="29">
         <v>85</v>
       </c>
-      <c r="C108" s="8">
+      <c r="C108" s="30">
         <f t="shared" si="1"/>
         <v>992</v>
       </c>
     </row>
     <row r="109" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="7">
+      <c r="B109" s="29">
         <v>86</v>
       </c>
-      <c r="C109" s="8">
+      <c r="C109" s="30">
         <f t="shared" si="1"/>
         <v>995</v>
       </c>
     </row>
     <row r="110" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="7">
+      <c r="B110" s="29">
         <v>87</v>
       </c>
-      <c r="C110" s="8">
+      <c r="C110" s="30">
         <f t="shared" si="1"/>
         <v>997</v>
       </c>
     </row>
     <row r="111" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="7">
+      <c r="B111" s="29">
         <v>88</v>
       </c>
-      <c r="C111" s="8">
+      <c r="C111" s="30">
         <f t="shared" si="1"/>
         <v>999</v>
       </c>
     </row>
     <row r="112" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="7">
+      <c r="B112" s="29">
         <v>89</v>
       </c>
-      <c r="C112" s="8">
+      <c r="C112" s="30">
         <f t="shared" si="1"/>
         <v>1001</v>
       </c>
     </row>
     <row r="113" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="7">
+      <c r="B113" s="29">
         <v>90</v>
       </c>
-      <c r="C113" s="8">
+      <c r="C113" s="30">
         <f t="shared" si="1"/>
         <v>1003</v>
       </c>
     </row>
     <row r="114" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="7">
+      <c r="B114" s="29">
         <v>91</v>
       </c>
-      <c r="C114" s="8">
+      <c r="C114" s="30">
         <f t="shared" si="1"/>
         <v>1005</v>
       </c>
     </row>
     <row r="115" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="7">
+      <c r="B115" s="29">
         <v>92</v>
       </c>
-      <c r="C115" s="8">
+      <c r="C115" s="30">
         <f t="shared" si="1"/>
         <v>1007</v>
       </c>
     </row>
     <row r="116" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="7">
+      <c r="B116" s="29">
         <v>93</v>
       </c>
-      <c r="C116" s="8">
+      <c r="C116" s="30">
         <f t="shared" si="1"/>
         <v>1009</v>
       </c>
     </row>
     <row r="117" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="7">
+      <c r="B117" s="29">
         <v>94</v>
       </c>
-      <c r="C117" s="8">
+      <c r="C117" s="30">
         <f t="shared" si="1"/>
         <v>1011</v>
       </c>
     </row>
     <row r="118" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="7">
+      <c r="B118" s="29">
         <v>95</v>
       </c>
-      <c r="C118" s="8">
+      <c r="C118" s="30">
         <f t="shared" si="1"/>
         <v>1013</v>
       </c>
     </row>
     <row r="119" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="7">
+      <c r="B119" s="29">
         <v>96</v>
       </c>
-      <c r="C119" s="8">
+      <c r="C119" s="30">
         <f t="shared" si="1"/>
         <v>1015</v>
       </c>
     </row>
     <row r="120" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="7">
+      <c r="B120" s="29">
         <v>97</v>
       </c>
-      <c r="C120" s="8">
+      <c r="C120" s="30">
         <f t="shared" si="1"/>
         <v>1017</v>
       </c>
     </row>
     <row r="121" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="7">
+      <c r="B121" s="29">
         <v>98</v>
       </c>
-      <c r="C121" s="8">
+      <c r="C121" s="30">
         <f t="shared" si="1"/>
         <v>1019</v>
       </c>
     </row>
     <row r="122" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="7">
+      <c r="B122" s="29">
         <v>99</v>
       </c>
-      <c r="C122" s="8">
+      <c r="C122" s="30">
         <f t="shared" si="1"/>
         <v>1021</v>
       </c>
     </row>
     <row r="123" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="7">
+      <c r="B123" s="29">
         <v>100</v>
       </c>
-      <c r="C123" s="8">
+      <c r="C123" s="30">
         <f t="shared" si="1"/>
         <v>1023</v>
       </c>
     </row>
     <row r="124" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="7">
+      <c r="B124" s="29">
         <v>101</v>
       </c>
-      <c r="C124" s="8">
+      <c r="C124" s="30">
         <f t="shared" si="1"/>
         <v>1024</v>
       </c>
     </row>
     <row r="125" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="7">
+      <c r="B125" s="29">
         <v>102</v>
       </c>
-      <c r="C125" s="8">
+      <c r="C125" s="30">
         <f t="shared" si="1"/>
         <v>1026</v>
       </c>
     </row>
     <row r="126" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="7">
+      <c r="B126" s="29">
         <v>103</v>
       </c>
-      <c r="C126" s="8">
+      <c r="C126" s="30">
         <f t="shared" si="1"/>
         <v>1028</v>
       </c>
     </row>
     <row r="127" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="7">
+      <c r="B127" s="29">
         <v>104</v>
       </c>
-      <c r="C127" s="8">
+      <c r="C127" s="30">
         <f t="shared" si="1"/>
         <v>1029</v>
       </c>
     </row>
     <row r="128" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="7">
+      <c r="B128" s="29">
         <v>105</v>
       </c>
-      <c r="C128" s="8">
+      <c r="C128" s="30">
         <f t="shared" si="1"/>
         <v>1031</v>
       </c>
     </row>
     <row r="129" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="7">
+      <c r="B129" s="29">
         <v>106</v>
       </c>
-      <c r="C129" s="8">
+      <c r="C129" s="30">
         <f t="shared" si="1"/>
         <v>1033</v>
       </c>
     </row>
     <row r="130" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="7">
+      <c r="B130" s="29">
         <v>107</v>
       </c>
-      <c r="C130" s="8">
+      <c r="C130" s="30">
         <f t="shared" si="1"/>
         <v>1034</v>
       </c>
     </row>
     <row r="131" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="7">
+      <c r="B131" s="29">
         <v>108</v>
       </c>
-      <c r="C131" s="8">
+      <c r="C131" s="30">
         <f t="shared" si="1"/>
         <v>1036</v>
       </c>
     </row>
     <row r="132" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="7">
+      <c r="B132" s="29">
         <v>109</v>
       </c>
-      <c r="C132" s="8">
+      <c r="C132" s="30">
         <f t="shared" si="1"/>
         <v>1038</v>
       </c>
     </row>
     <row r="133" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="7">
+      <c r="B133" s="29">
         <v>110</v>
       </c>
-      <c r="C133" s="8">
+      <c r="C133" s="30">
         <f t="shared" si="1"/>
         <v>1039</v>
       </c>
     </row>
     <row r="134" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="7">
+      <c r="B134" s="29">
         <v>111</v>
       </c>
-      <c r="C134" s="8">
+      <c r="C134" s="30">
         <f t="shared" si="1"/>
         <v>1041</v>
       </c>
     </row>
     <row r="135" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="7">
+      <c r="B135" s="29">
         <v>112</v>
       </c>
-      <c r="C135" s="8">
+      <c r="C135" s="30">
         <f t="shared" si="1"/>
         <v>1042</v>
       </c>
     </row>
     <row r="136" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="7">
+      <c r="B136" s="29">
         <v>113</v>
       </c>
-      <c r="C136" s="8">
+      <c r="C136" s="30">
         <f t="shared" si="1"/>
         <v>1044</v>
       </c>
     </row>
     <row r="137" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="7">
+      <c r="B137" s="29">
         <v>114</v>
       </c>
-      <c r="C137" s="8">
+      <c r="C137" s="30">
         <f t="shared" si="1"/>
         <v>1045</v>
       </c>
     </row>
     <row r="138" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="7">
+      <c r="B138" s="29">
         <v>115</v>
       </c>
-      <c r="C138" s="8">
+      <c r="C138" s="30">
         <f t="shared" si="1"/>
         <v>1047</v>
       </c>
     </row>
     <row r="139" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="7">
+      <c r="B139" s="29">
         <v>116</v>
       </c>
-      <c r="C139" s="8">
+      <c r="C139" s="30">
         <f t="shared" si="1"/>
         <v>1048</v>
       </c>
     </row>
     <row r="140" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="7">
+      <c r="B140" s="29">
         <v>117</v>
       </c>
-      <c r="C140" s="8">
+      <c r="C140" s="30">
         <f t="shared" si="1"/>
         <v>1050</v>
       </c>
     </row>
     <row r="141" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="7">
+      <c r="B141" s="29">
         <v>118</v>
       </c>
-      <c r="C141" s="8">
+      <c r="C141" s="30">
         <f t="shared" si="1"/>
         <v>1051</v>
       </c>
     </row>
     <row r="142" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="7">
+      <c r="B142" s="29">
         <v>119</v>
       </c>
-      <c r="C142" s="8">
+      <c r="C142" s="30">
         <f t="shared" si="1"/>
         <v>1052</v>
       </c>
     </row>
     <row r="143" spans="2:3" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="13">
+      <c r="B143" s="31">
         <v>120</v>
       </c>
-      <c r="C143" s="15">
+      <c r="C143" s="32">
         <f t="shared" si="1"/>
         <v>1054</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jkEqrPbn5uxF+aX3Z2/Gernjc8IwnelU4Zc+LEu8463tvLBBa59wVMtdDXb0fBMDzGMUiKKX6Tw0l8jS/LKhag==" saltValue="Dn9r2CPySRqVtXr6S6SpwQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nqYlwN8fP8X2smoZ3GWIIuLWmgIkfqiHUQDw1pPL8yHft3GBgxVENmr4/aBfgtX1BqABQsa3pHnDZWNUHB8esQ==" saltValue="GWYaeaEYuCTMLIh4k/zO8w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="11">
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B2:D2"/>
@@ -5781,6 +4839,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="a6f814fa-7008-4f3b-a257-96f5ca533658" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010057F4903440BCEC419BDE2A0A8B1EFEA1" ma:contentTypeVersion="10" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="b696d3c739748bfdef822986a4d6f089">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a6f814fa-7008-4f3b-a257-96f5ca533658" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="034a5f2f5ced05abb0fcc79c91e834be" ns3:_="">
     <xsd:import namespace="a6f814fa-7008-4f3b-a257-96f5ca533658"/>
@@ -5962,24 +5037,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2272C55C-3E27-4BF8-9647-0FC170417179}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a6f814fa-7008-4f3b-a257-96f5ca533658"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="a6f814fa-7008-4f3b-a257-96f5ca533658" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09795CB9-CDA8-485B-BA79-DA43BFAB31EC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91BF5128-39AC-4675-B0DF-8FFBD2B16D67}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5995,28 +5077,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09795CB9-CDA8-485B-BA79-DA43BFAB31EC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2272C55C-3E27-4BF8-9647-0FC170417179}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a6f814fa-7008-4f3b-a257-96f5ca533658"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>